--- a/black_metals/data/mid-stream/螺纹钢/螺纹钢销量.xlsx
+++ b/black_metals/data/mid-stream/螺纹钢/螺纹钢销量.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Projects\ffa\steel\data\mid-stream\螺纹钢\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Projects\futures_nexus\black_metals\data\mid-stream\螺纹钢\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDD8AF0-CAD3-4931-B681-F7C107CEFDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F415AB-B082-4737-899B-B3926AA387F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2512" yWindow="2887" windowWidth="28800" windowHeight="14686" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2175" yWindow="2550" windowWidth="28800" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <author>howard</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{DACBF0D8-C496-4228-BF4B-BBBE14C7CC31}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{098A3181-B1B8-47DD-9F77-94613B6FA530}">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>yVjpCgZpNvOo0CXxW3eR4HOIrS+iJBe1s4BmYiRMzkvT/b0Thz+BczQumKulgeZlincFv79IQKlmwyL1J4mnCLqY5dDqwzSm4JB91aCpDyrpx6tBELW56kXdW21jzZopBYa/LLXRq3JmfrGvRAlHJGieJdyFvnLK0F5GI6YK84j2xeFwW4xnm4vlk/9lRfk2PE6eQTmQMXDhVlTbC4pcjhMD/2sqRDPafDbsbifrZYB8OBmLPG4EkH0klllVkAEg7o2rBVxNQERnKbQ5dNnb/J5jhHzypnvhWQ32p1bMqYavy5tKvc8bzdIwI9Po5TXllYHhOGHRuZfsrGzzznJKkw6xzxTpdc4UAsN1+P+tKL18KW/vRvEp3sLMokDQqW8uGcrg1iqIAJq7CmXMnbx3V6OZG3of3xZgSF7ov1ZgQue8m/4XONBqp2+jCDnc5KkClc/GS41hY3QeGcpWlPEnLy58sAIaCKUwR+xUc9vEOi+Pnimy6DFy7TOuEA69y86LgOMJHGCfRH7hlN+WkiAxeU1/XgLsSlN+I/fc9B81ZCYZHe/CWSQQbJR6YMbH4I9xx3OBWhhrlq1Tfa2C5n8e5Dcr0ofUAdsSxXa2z/OtAL5fFuHhHN9/mLJ9rVy15iWomrqlUPgo6656fjEu9v9ZV+cehf1LlNWTbXdntTlHGsZrbu+EN2cnIHwtA8cORioFbkfY7DtTL3t6y/6bg5A2Q7asLQ4GVjVIYbZsypnUF+6uQDeZ1YHpG9UgkVCAzgFvFHxPyIW0kHfFZcsL+sKIj7OtqWRXTV8fxZyMcl9Zoql/WM/ynzfHRy1VjJJehYmCRxJ+egux2MDokX7EiRBpISZHKKfZEe9zq0r9/5EgR8bCmvAimsHS6x/RWh2lDiCAHSkRfZtp+B8qvwjMWyvZ6R3qq+ZSihlKiT6Much0bMGSU1To2o5kqP9gJEfyCVlo7m1JihOyo5HQzBMwUYMxEnrvC438N7sesooT04qP05Jb5BAyc1ErNc1+6IyJFsbLnEdaGdXXOBz1DI9wPm+5F2XXdWf9SeZUCehHSwuKmVWm1FFWkI2hoLRaIdF0ZlNGIhhPdB6zd/zh7vckOpDbULi9KTFcZtqSYtsUliFv4K15LeDng6y2Pbp3fXToFJ6A3lj6Opfoc+HOJR/N750lb44s7pcFe7BAxO705ZiMn7qIgNnfW+4C/1Su/qHlYE8X5Yy3NQuRBNbNke1GlAMj5RWvxb7a3bE+qTHSl/f5Ff2rgXtT8zgXsH7o3UyKDQ3z/I2PJq33PMk=</t>
+          <t>yVjpCgZpNvOo0CXxW3eR4HOIrS+iJBe1s4BmYiRMzkvT/b0Thz+BczQumKulgeZlincFv79IQKlmwyL1J4mnCLqY5dDqwzSm4JB91aCpDyrpx6tBELW56kXdW21jzZopBYa/LLXRq3JmfrGvRAlHJGieJdyFvnLK0F5GI6YK84j2xeFwW4xnm4vlk/9lRfk2PE6eQTmQMXDhVlTbC4pcjhMD/2sqRDPafDbsbifrZYB8OBmLPG4EkH0klllVkAEg7o2rBVxNQERnKbQ5dNnb/J5jhHzypnvhWQ32p1bMqYavy5tKvc8bzdIwI9Po5TXllYHhOGHRuZfsrGzzznJKkw6xzxTpdc4UAsN1+P+tKL18KW/vRvEp3sLMokDQqW8uGcrg1iqIAJq7CmXMnbx3V6OZG3of3xZgSF7ov1ZgQue8m/4XONBqp2+jCDnc5KkClc/GS41hY3QeGcpWlPEnLy58sAIaCKUwR+xUc9vEOi+Pnimy6DFy7TOuEA69y86LgOMJHGCfRH7hlN+WkiAxeU1/XgLsSlN+I/fc9B81ZCYZHe/CWSQQbJR6YMbH4I9xx3OBWhhrlq1Tfa2C5n8e5Dcr0ofUAdsSxXa2z/OtAL5fFuHhHN9/mLJ9rVy15iWomrqlUPgo6656fjEu9v9ZV+cehf1LlNWTbXdntTlHGsZrbu+EN2cnIHwtA8cORioFbkfY7DtTL3t6y/6bg5A2Q7asLQ4GVjVIYbZsypnUF+6uQDeZ1YHpG9UgkVCAzgFvFHxPyIW0kHfFZcsL+sKIj7OtqWRXTV8fxZyMcl9Zoql/WM/ynzfHRy1VjJJehYmCRxJ+egux2MDokX7EiRBpISZHKKfZEe9zq0r9/5EgR8bCmvAimsHS6x/RWh2lDiCAHSkRfZtp+B8qvwjMWyvZ6R3qq+ZSihlKiT6Much0bMGSU1To2o5kqP9gJEfyCVlo7m1JihOyo5HQzBMwUYMxEnrvC438N7sesooT04qP05Jb5BAyc1ErNc1+6IyJFsbLnEdaGdXXOBz1DI9wPm+5F2XXdWf9SeZUCehHSwuKmVWm1FFWkI2hoLRaIdF0ZlNGIhhPdB6zd/zh7vckOpDbULi9KTFcZtqSYtsUliFv4K15LeDng6y2Pbp3fXToFJ6AkDD44lSOjU0pWfAuxcTYaqsvBa8oO+GlhP2YEXEhLvIncHgXrLdcJdCoNRobJ+bwHiAUfjJH+7KqxDAXpG8lvpWM9uHaRhE0cTlEsfpdHio80XAtLqTpEi+K+ZOgtDW+cEhczW4zZOU=</t>
         </r>
       </text>
     </comment>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>指标名称</t>
   </si>
@@ -756,10 +756,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:G167"/>
+  <dimension ref="A1:G169"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="D166" sqref="D166"/>
+      <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4528,18 +4528,59 @@
         <v>77.405299999999997</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A165" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" s="2" t="s">
-        <v>14</v>
+    <row r="165" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="5">
+        <v>45291</v>
+      </c>
+      <c r="B165" s="6">
+        <v>49312586</v>
+      </c>
+      <c r="C165" s="6">
+        <v>8367.1831000000002</v>
+      </c>
+      <c r="D165" s="6">
+        <v>161784191</v>
+      </c>
+      <c r="E165" s="6">
+        <v>8564342</v>
+      </c>
+      <c r="F165" s="6">
+        <v>1938.7186999999999</v>
+      </c>
+      <c r="G165" s="6">
+        <v>84.824299999999994</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="5">
+        <v>45322</v>
+      </c>
+      <c r="B166" s="6">
+        <v>3194666</v>
+      </c>
+      <c r="C166" s="6">
+        <v>603.88549999999998</v>
+      </c>
+      <c r="D166" s="6">
+        <v>11104838</v>
+      </c>
+      <c r="E166" s="6">
+        <v>552561</v>
+      </c>
+      <c r="F166" s="6">
+        <v>124.8873</v>
+      </c>
+      <c r="G166" s="6">
+        <v>6.9882</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
         <v>14</v>
       </c>
     </row>
